--- a/biology/Botanique/Aquifoliaceae/Aquifoliaceae.xlsx
+++ b/biology/Botanique/Aquifoliaceae/Aquifoliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aquifoliaceae (Aquifoliacées) sont une famille de plantes dicotylédones comprenant 400-600 espèces réparties en 1 à 2 genres.
 Ce sont de petits arbres ou des arbustes, généralement à feuilles persistantes épineuses, des régions tempérées à tropicales.
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de Aquifolium, nom donné par Joseph de Tournefort, qui est le nom latin du houx, Ilex. Ce dernier est lui-même le nom latin du « chêne vert » ou Yeuse Quercus ilex (Fagaceae), parfois appelé « chêne faux houx » précisément du fait de la ressemblance de ses feuilles avec celles du houx Ilex aquifolium. 
-Quant à aquifolium, il est la déformation du latin acrifolium (houx), de acer, « pointu ; perçant ; aigu » (ou de acus, aiguille), et folium, feuille[1], en référence aux feuilles très pointues de certaines espèces.
+Quant à aquifolium, il est la déformation du latin acrifolium (houx), de acer, « pointu ; perçant ; aigu » (ou de acus, aiguille), et folium, feuille, en référence aux feuilles très pointues de certaines espèces.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] et classification phylogénétique APG III (2009)[3] placent cette famille dans l'ordre des Aquifoliales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) placent cette famille dans l'ordre des Aquifoliales.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[4], NCBI  (12 nov. 2015)[5], DELTA Angio           (12 nov. 2015)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), NCBI  (12 nov. 2015), DELTA Angio           (12 nov. 2015) :
 Ilex L.
 Nemopanthus Raf.
-Selon ITIS      (12 nov. 2015)[7] :
+Selon ITIS      (12 nov. 2015) :
 genre Ilex L.</t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (9 Jul 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (9 Jul 2010) :
 genre Ilex
 Ilex aculeolata
 Ilex affinis
